--- a/12-CCAP-LhARA-JISCMAIL/2025-11-25-JISCMAIL.xlsx
+++ b/12-CCAP-LhARA-JISCMAIL/2025-11-25-JISCMAIL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2056774485219/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/12-CCAP-LhARA-JISCMAIL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{67CB0F03-29AD-B44B-B2AF-38B2246D6A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D05CCE-E072-C547-BBFB-F5BC37520B43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D677D59D-3831-7946-8E50-EFDC526A9DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{279650D4-8092-104D-98E8-B4B041CEC06C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="278">
   <si>
     <t>medhi.tarisien@U-BORDEAUX.FR</t>
   </si>
@@ -845,6 +845,15 @@
   </si>
   <si>
     <t>Matthew Pereira</t>
+  </si>
+  <si>
+    <t>p.matthews@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>Paul Matthews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">director@rfi.ac.uk </t>
   </si>
 </sst>
 </file>
@@ -1716,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1D5C34-3CC8-C24C-8D22-199BE59DE1AE}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2864,9 +2873,27 @@
         <v>270</v>
       </c>
     </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A101" r:id="rId1" xr:uid="{1FF5034E-4888-EE44-A700-17C170F45EA8}"/>
+    <hyperlink ref="A143" r:id="rId2" xr:uid="{69418F47-4202-0142-A9E3-EACDD22BC34D}"/>
+    <hyperlink ref="A144" r:id="rId3" xr:uid="{7FA1CF47-B4A9-DF4D-973E-33D8D1FEAB82}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
